--- a/biology/Zoologie/Dyrosaurus_phosphaticus/Dyrosaurus_phosphaticus.xlsx
+++ b/biology/Zoologie/Dyrosaurus_phosphaticus/Dyrosaurus_phosphaticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dyrosaurus
 Dyrosaurus est un genre fossile de crocodyliformes de l'Éocène inférieur (Yprésien) ayant vécu dans la nord de l'Afrique il y a environ 50 Ma (millions d'années). La minceur de ses mâchoires et ses dents suggèrent qu'il avait un régime alimentaire piscivore, comme l'actuel gavial du Gange.
@@ -513,14 +525,86 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Dyrosaurus est décrit par le paléontologue français Auguste Pomel (1821-1898) en 1894[1],[2].
-L'espèce Dyrosaurus phosphaticus est décrite par le géologue amateur français Philippe Thomas (géologue) (1843-1910) en 1893[3].
-Cladogramme
-Le cladogramme suivant de Daniel Fortier et ses collègues en 2011[4] montre la position des espèces au sein de la famille des Pholidosauridae :
-Liste des espèces du genre Dyrosaurus
-† Dyrosaurus phosphaticus (Thomas 1893)[5] de Tunisie. Il a été découvert par Philippe Thomas.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dyrosaurus est décrit par le paléontologue français Auguste Pomel (1821-1898) en 1894,.
+L'espèce Dyrosaurus phosphaticus est décrite par le géologue amateur français Philippe Thomas (géologue) (1843-1910) en 1893.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dyrosaurus_phosphaticus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyrosaurus_phosphaticus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant de Daniel Fortier et ses collègues en 2011 montre la position des espèces au sein de la famille des Pholidosauridae :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dyrosaurus_phosphaticus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyrosaurus_phosphaticus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces du genre Dyrosaurus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>† Dyrosaurus phosphaticus (Thomas 1893) de Tunisie. Il a été découvert par Philippe Thomas.
 † Dyrosaurus choumowitchi Bergounioux, 1955
 † Dyrosaurus berneti Bergounioux, 1955
 † Dyrosaurus maghribensis Jouve, Iarochene, Bouya &amp; Amaghzaz, 2006 du Maroc.
@@ -530,31 +614,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Dyrosaurus_phosphaticus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dyrosaurus_phosphaticus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On a retrouvé ses fossiles en Algérie et en Tunisie. Il mesurait 6 mètres de long.
 </t>
